--- a/storage/app/templates/import.xlsx
+++ b/storage/app/templates/import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\laravel-doc-system\storage\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4518141D-7560-4D3B-A138-2A9F6F7620A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976B0193-2626-48E2-9293-4E579DC697DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
